--- a/sample/execmacro/results/scenario_execmacro.xlsx
+++ b/sample/execmacro/results/scenario_execmacro.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="GroupB" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Results_20250926_184648" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Results_20250926_222148" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
@@ -582,7 +582,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,14 +593,21 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>{"testid": "B-004", "module": "handleobject.py", "function": "test_handling_collection", "line": 4, "succeeded": true, "runned_at": "2025-09-26 18:46:45.752"}</t>
+          <t>{"testid": "B-004", "module": "handleobject.py", "function": "test_handling_collection", "line": 4, "succeeded": true, "runned_at": "2025-09-26 22:21:43.787"}</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{"testid": "B-004", "module": "handleobject.py", "function": "test_handling_dictionary", "line": 18, "succeeded": true, "runned_at": "2025-09-26 18:46:48.615"}</t>
+          <t>{"testid": "B-004", "module": "handleobject.py", "function": "test_handling_dictionary", "line": 18, "succeeded": true, "runned_at": "2025-09-26 22:21:45.821"}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>{"testid": "B-004", "module": "handleobject.py", "function": "test_handling_toomuch", "line": 30, "succeeded": true, "runned_at": "2025-09-26 22:21:48.299"}</t>
         </is>
       </c>
     </row>
